--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204787.3513991394</v>
+        <v>-207251.4148428443</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>119.9714617240045</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>282.8791992932306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,7 +826,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>94.85669977638543</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>62.92550725833178</v>
+        <v>247.1280608531009</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>371.5595550832164</v>
+        <v>375.1844348661911</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>6.380068175848154</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>286.4944569596363</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>279.3751023006579</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>17.35112070699533</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>6.380068175847859</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.15474379749152</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576191</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.24347904696457</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>11.56087338713452</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>29.9590012402398</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>136.2892803597729</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016433</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>220.6346102953139</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>178.9060413124605</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881274</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1682.315766249261</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1324.050067642511</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>938.2618150442665</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>527.275910254659</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,10 +4325,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1831.479699829518</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1767.918581386758</v>
+        <v>1485.984360023298</v>
       </c>
       <c r="V4" t="n">
-        <v>1767.918581386758</v>
+        <v>1231.299871817411</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>941.8827017804504</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>713.893150882433</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>713.893150882433</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1565.440264581601</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C5" t="n">
-        <v>1196.47774764119</v>
+        <v>1200.139242371467</v>
       </c>
       <c r="D5" t="n">
-        <v>1196.47774764119</v>
+        <v>1200.139242371467</v>
       </c>
       <c r="E5" t="n">
-        <v>1196.47774764119</v>
+        <v>1200.139242371467</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.040104645723</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1920.850034779555</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1699.083419349081</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1409.980552474725</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1155.296064268838</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W7" t="n">
-        <v>865.8788942318776</v>
+        <v>1067.286999435222</v>
       </c>
       <c r="X7" t="n">
-        <v>637.8893433338602</v>
+        <v>839.2974485372046</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.0967641903301</v>
+        <v>839.2974485372046</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>241.8928126690276</v>
+        <v>788.0919254117579</v>
       </c>
       <c r="C10" t="n">
-        <v>72.95662974112065</v>
+        <v>619.155742483851</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>619.155742483851</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>471.2426489014579</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>324.3527014035475</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427974</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="Y10" t="n">
-        <v>423.5412774992673</v>
+        <v>969.7403902419976</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756268</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468477</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.175106640328</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.55359426688</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327661</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797193</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630058</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.7774158311364</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032295</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876706</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876706</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235167</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258108</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396419</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359458</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614405</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179104</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7087,10 +7087,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,10 +7397,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7546,22 +7546,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,7 +7658,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311324</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.308775558570233e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>290.950263929449</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>39.50653531668143</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.358739362823</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>223.2863309472811</v>
+        <v>39.08377735251202</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.02301567748233e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0033420516633</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856549</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012162</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>205.8445769401537</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>118.6564717779726</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>9.131767663158371</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>107.2784330767837</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028985</v>
+        <v>274720.9666028983</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="F2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="G2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="H2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="I2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="G2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="H2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="I2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="J2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="K2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="N2" t="n">
         <v>302679.9748837522</v>
@@ -26353,7 +26353,7 @@
         <v>302679.9748837522</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.6636991062</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073561</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363193</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39258.33370057255</v>
+        <v>39258.33370057284</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813248</v>
@@ -26439,7 +26439,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26448,16 +26448,16 @@
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="O4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="O4" t="n">
-        <v>10557.08828678123</v>
-      </c>
       <c r="P4" t="n">
-        <v>18547.94754987467</v>
+        <v>18547.94754987468</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1201216.05338666</v>
+        <v>-1201437.184700635</v>
       </c>
       <c r="C6" t="n">
         <v>110212.6000795804</v>
       </c>
       <c r="D6" t="n">
-        <v>110212.6000795804</v>
+        <v>110212.6000795803</v>
       </c>
       <c r="E6" t="n">
-        <v>-134412.1050342922</v>
+        <v>-134446.8429597268</v>
       </c>
       <c r="F6" t="n">
-        <v>191000.3567730646</v>
+        <v>190965.6188476284</v>
       </c>
       <c r="G6" t="n">
-        <v>191000.3567730638</v>
+        <v>190965.6188476283</v>
       </c>
       <c r="H6" t="n">
-        <v>191000.3567730638</v>
+        <v>190965.6188476284</v>
       </c>
       <c r="I6" t="n">
-        <v>191000.3567730641</v>
+        <v>190965.6188476282</v>
       </c>
       <c r="J6" t="n">
-        <v>-26530.84562421366</v>
+        <v>-26565.58354964908</v>
       </c>
       <c r="K6" t="n">
-        <v>191000.3567730639</v>
+        <v>190965.6188476284</v>
       </c>
       <c r="L6" t="n">
-        <v>191000.3567730639</v>
+        <v>190965.6188476282</v>
       </c>
       <c r="M6" t="n">
-        <v>105945.328837552</v>
+        <v>105910.5909121165</v>
       </c>
       <c r="N6" t="n">
-        <v>191000.3567730639</v>
+        <v>190965.6188476282</v>
       </c>
       <c r="O6" t="n">
-        <v>191000.3567730639</v>
+        <v>190965.6188476282</v>
       </c>
       <c r="P6" t="n">
-        <v>166750.8823016839</v>
+        <v>166750.8823016844</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483764</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>309.7344334007316</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>124.6922494997838</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>35.31649065849501</v>
+        <v>31.69161087552038</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>183.3889571555937</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.02854137695470627</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>75.30793932002501</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>331.8898480104177</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>142.2354048423645</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>151.8710644615367</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601573</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.279049007179</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437247</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32470,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902954</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243166</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678999</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802831</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238457</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992803</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191305</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
